--- a/anonymization-sheet.xlsx
+++ b/anonymization-sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joehe05\Documents\aida-pat-anonexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joehe05\Documents\eraseme\aida-pat-anonexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FA9B6-6E7D-4479-8EBF-DFAA97632BA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519DFA1-E5CD-4A0F-8AB2-BC0F09AEAEE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" xr2:uid="{82B663A5-D320-4BF0-B0E4-C1F4FA1F5C31}"/>
+    <workbookView xWindow="285" yWindow="270" windowWidth="19200" windowHeight="11070" xr2:uid="{82B663A5-D320-4BF0-B0E4-C1F4FA1F5C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Prefix:</t>
   </si>
@@ -39,52 +39,72 @@
     <t>Digits:</t>
   </si>
   <si>
+    <t>AnonID</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Stain</t>
+  </si>
+  <si>
+    <t>Study parameter 1</t>
+  </si>
+  <si>
+    <t>Study parameter 2</t>
+  </si>
+  <si>
+    <t>Study parameter 3…</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>AIDA Pathology Anonymization Sheet</t>
+  </si>
+  <si>
+    <t>Howto:</t>
+  </si>
+  <si>
+    <t>3. Run aida-pat-anonexcel.py &lt;path to this file&gt; to fill out missing AnonID and AnonFile. Anonymized image files appear in subdirectory anon.</t>
+  </si>
+  <si>
+    <t>MYPROJ-</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Your data is now Pseudonymous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because keys still exist that connect AnonIDs to Persons. Please verify that everything went as expected.</t>
+    </r>
+  </si>
+  <si>
+    <t>OrigFile</t>
+  </si>
+  <si>
     <t>Person</t>
   </si>
   <si>
-    <t>AnonID</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Stain</t>
-  </si>
-  <si>
-    <t>Study parameter 1</t>
-  </si>
-  <si>
-    <t>Study parameter 2</t>
-  </si>
-  <si>
-    <t>Study parameter 3…</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Example:</t>
-  </si>
-  <si>
-    <t>AnonFile</t>
-  </si>
-  <si>
-    <t>Image file</t>
-  </si>
-  <si>
-    <t>AIDA Pathology Anonymization Sheet</t>
-  </si>
-  <si>
-    <t>Howto:</t>
-  </si>
-  <si>
-    <t>3. Run aida-pat-anonexcel.py &lt;path to this file&gt; to fill out missing AnonID and AnonFile. Anonymized image files appear in subdirectory anon.</t>
-  </si>
-  <si>
-    <t>1. Put a copy of this file in a folder. Put image files in same folder or in subfolders named after Person.</t>
-  </si>
-  <si>
-    <t>2. Set Prefix for your study. If you want to assign a specific AnonID to a specific Person, type it out exactly on the first row where that Person occurs (eg DPL-JBR-123). New AnonIDs will be assigned sequentially from there on.</t>
+    <t>Status</t>
   </si>
   <si>
     <r>
@@ -109,7 +129,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Delete all keys associating AnonIDs to Persons, including the </t>
+      <t xml:space="preserve">: Delete all keys associating AnonIDs to persons, including the </t>
     </r>
     <r>
       <rPr>
@@ -141,17 +161,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Image file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cells below, and any other identifiers that may exist. Obviously, </t>
+      <t>OrigFile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cells below and any other identifiers that may exist. Obviously, </t>
     </r>
     <r>
       <rPr>
@@ -176,33 +196,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Your data is now Pseudonymous.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Keys exist that connect AnonIDs to Persons. Please verify that everything went as expected.</t>
-    </r>
-  </si>
-  <si>
-    <t>MYPROJ-</t>
+    <t>1. Put a copy of this file in a folder. Put exported .zip files or folders named after Persons in same folder. Should contain BLOCK_STAIN (eg "A_HE") subfolders with one .svs file each in them.</t>
+  </si>
+  <si>
+    <t>2. Set Prefix for your study. AnonIDs are generated sequentially from the last AnonID given based on this prefix, or from 1 if none given (eg MYPROJ-001).</t>
   </si>
 </sst>
 </file>
@@ -590,124 +587,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D87FB2-CF59-4A73-A760-1BB024505B23}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="str">
+        <f>E9&amp;TEXT(1, REPT("0", E10))</f>
+        <v>MYPROJ-001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="str">
-        <f>C9&amp;TEXT(1, REPT("0", C10))</f>
-        <v>MYPROJ-001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anonymization-sheet.xlsx
+++ b/anonymization-sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joehe05\Documents\eraseme\aida-pat-anonexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519DFA1-E5CD-4A0F-8AB2-BC0F09AEAEE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84140065-E8F9-453E-AFD2-424F659AB39B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="270" windowWidth="19200" windowHeight="11070" xr2:uid="{82B663A5-D320-4BF0-B0E4-C1F4FA1F5C31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{82B663A5-D320-4BF0-B0E4-C1F4FA1F5C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Prefix:</t>
-  </si>
-  <si>
-    <t>Digits:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>AnonID</t>
   </si>
@@ -57,21 +51,12 @@
     <t>Study parameter 3…</t>
   </si>
   <si>
-    <t>Example:</t>
-  </si>
-  <si>
     <t>AIDA Pathology Anonymization Sheet</t>
   </si>
   <si>
     <t>Howto:</t>
   </si>
   <si>
-    <t>3. Run aida-pat-anonexcel.py &lt;path to this file&gt; to fill out missing AnonID and AnonFile. Anonymized image files appear in subdirectory anon.</t>
-  </si>
-  <si>
-    <t>MYPROJ-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">4. </t>
     </r>
@@ -199,7 +184,10 @@
     <t>1. Put a copy of this file in a folder. Put exported .zip files or folders named after Persons in same folder. Should contain BLOCK_STAIN (eg "A_HE") subfolders with one .svs file each in them.</t>
   </si>
   <si>
-    <t>2. Set Prefix for your study. AnonIDs are generated sequentially from the last AnonID given based on this prefix, or from 1 if none given (eg MYPROJ-001).</t>
+    <t>2. Assign AnonIDs to your Persons. You can for example type in the first (eg "MYPROJ-001") and then drag down to number the rest sequentially.</t>
+  </si>
+  <si>
+    <t>3. Run aida-pat-anonexcel.py &lt;path to this file&gt; to check for mistakes, find and anonymize slides, and update this sheet to match.</t>
   </si>
 </sst>
 </file>
@@ -587,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D87FB2-CF59-4A73-A760-1BB024505B23}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,109 +591,79 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="str">
-        <f>E9&amp;TEXT(1, REPT("0", E10))</f>
-        <v>MYPROJ-001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anonymization-sheet.xlsx
+++ b/anonymization-sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joehe05\Documents\eraseme\aida-pat-anonexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84140065-E8F9-453E-AFD2-424F659AB39B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F12E6-2749-4146-A233-12FED978AEAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{82B663A5-D320-4BF0-B0E4-C1F4FA1F5C31}"/>
+    <workbookView xWindow="4845" yWindow="4335" windowWidth="28800" windowHeight="15750" xr2:uid="{82B663A5-D320-4BF0-B0E4-C1F4FA1F5C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>AnonID</t>
   </si>
@@ -57,8 +57,32 @@
     <t>Howto:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4. </t>
+    <t>OrigFile</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1. Put a copy of this file in a folder.</t>
+  </si>
+  <si>
+    <t>3. Assign increasing AnonIDs to your Cases, for example by typing in the one on the first row (eg "MYPROJ-001") and then dragging down to number the rest sequentially.</t>
+  </si>
+  <si>
+    <t>2. List Cases to anonymize below. Use the same .zip filenames or folder names as you get when exporting cases from the PACS, preferably in random order.</t>
+  </si>
+  <si>
+    <t>4. Export cases and put in same folder. If using folders, these should have BLOCK_STAIN subfolders cotaining one .svs or .ndpi file each. Don't fill up more than half your available storage.</t>
+  </si>
+  <si>
+    <t>5. Run aida-pat-anonexcel.py on this file to check for mistakes, anonymize slides, and update this sheet to match.</t>
+  </si>
+  <si>
+    <t>8. Export to research system. Delete exported cases and anonymized images. Repeat from 4 until all cases have been processed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
@@ -69,31 +93,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Your data is now Pseudonymous</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> because keys still exist that connect AnonIDs to Persons. Please verify that everything went as expected.</t>
-    </r>
-  </si>
-  <si>
-    <t>OrigFile</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
+      <t>Your output data is now Pseudonymous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because keys still exist that connect AnonIDs to persons. Take this moment to verify that everything went as expected.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
     </r>
     <r>
       <rPr>
@@ -125,7 +140,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Person</t>
+      <t>Case</t>
     </r>
     <r>
       <rPr>
@@ -181,13 +196,7 @@
     </r>
   </si>
   <si>
-    <t>1. Put a copy of this file in a folder. Put exported .zip files or folders named after Persons in same folder. Should contain BLOCK_STAIN (eg "A_HE") subfolders with one .svs file each in them.</t>
-  </si>
-  <si>
-    <t>2. Assign AnonIDs to your Persons. You can for example type in the first (eg "MYPROJ-001") and then drag down to number the rest sequentially.</t>
-  </si>
-  <si>
-    <t>3. Run aida-pat-anonexcel.py &lt;path to this file&gt; to check for mistakes, find and anonymize slides, and update this sheet to match.</t>
+    <t>Case</t>
   </si>
 </sst>
 </file>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D87FB2-CF59-4A73-A760-1BB024505B23}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,69 +610,84 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anonymization-sheet.xlsx
+++ b/anonymization-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joehe05\Documents\eraseme\aida-pat-anonexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F12E6-2749-4146-A233-12FED978AEAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B3FA7-A1A0-43AB-B6C9-F942FCB9EF87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="4335" windowWidth="28800" windowHeight="15750" xr2:uid="{82B663A5-D320-4BF0-B0E4-C1F4FA1F5C31}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>1. Put a copy of this file in a folder.</t>
   </si>
   <si>
-    <t>3. Assign increasing AnonIDs to your Cases, for example by typing in the one on the first row (eg "MYPROJ-001") and then dragging down to number the rest sequentially.</t>
-  </si>
-  <si>
     <t>2. List Cases to anonymize below. Use the same .zip filenames or folder names as you get when exporting cases from the PACS, preferably in random order.</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Case</t>
+  </si>
+  <si>
+    <t>3. Assign increasing AnonIDs to your Cases, for example by typing in the one on the first row (eg "MYPROJ-001"), selecting the whole column and using Home –&gt; Editing –&gt; Fill –&gt; Series -&gt; AutoFill to number the rest sequentially.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="Q16" sqref="Q16:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,37 +615,37 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
